--- a/Convergence_of_Iterative_Methods/Convergence of iterative method data.xlsx
+++ b/Convergence_of_Iterative_Methods/Convergence of iterative method data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jihai\Desktop\Convergence_of_Iterative_Method\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jihai\Desktop\AforAwful\Convergence_of_Iterative_Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,9 +49,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="0.0000000000000000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -84,12 +84,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -221,14 +221,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:tint val="77000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -871,7 +867,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -1511,11 +1507,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="497595352"/>
-        <c:axId val="497591432"/>
+        <c:axId val="326819568"/>
+        <c:axId val="326821920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="497595352"/>
+        <c:axId val="326819568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,12 +1624,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497591432"/>
+        <c:crossAx val="326821920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="497591432"/>
+        <c:axId val="326821920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497595352"/>
+        <c:crossAx val="326819568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2662,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Convergence_of_Iterative_Methods/Convergence of iterative method data.xlsx
+++ b/Convergence_of_Iterative_Methods/Convergence of iterative method data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Error of Jacobi</t>
   </si>
@@ -43,15 +44,63 @@
   <si>
     <t>&lt;-average</t>
   </si>
+  <si>
+    <t>Vector element 1</t>
+  </si>
+  <si>
+    <t>Vector element 2</t>
+  </si>
+  <si>
+    <t>Vector element 3</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Jacobi's</t>
+  </si>
+  <si>
+    <t>Gauss-Seidel's</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>|Xo-Xexact|</t>
+  </si>
+  <si>
+    <t>Exact solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacobi Solution: 0.04736923524937995 0.05894807062579302 0.06947427923868228 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gauss-Seidel Solution: 0.04736757809292601 0.05894794000062059 0.06947382230220288 </t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Ratio Average -&gt;</t>
+  </si>
+  <si>
+    <t>GS Average-&gt;</t>
+  </si>
+  <si>
+    <t>JCB Average -&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000000000000000000"/>
     <numFmt numFmtId="165" formatCode="0.00000E+00"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -82,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -90,6 +139,27 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -157,7 +227,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1507,11 +1576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="326819568"/>
-        <c:axId val="326821920"/>
+        <c:axId val="155177304"/>
+        <c:axId val="155179264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="326819568"/>
+        <c:axId val="155177304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1626,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1624,12 +1692,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326821920"/>
+        <c:crossAx val="155179264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="326821920"/>
+        <c:axId val="155179264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,7 +1747,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1746,7 +1813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326819568"/>
+        <c:crossAx val="155177304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1836,13 +1903,2261 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Relation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> ship between |Xo-Xexact| with Iteration times in different methods</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26541369479653026"/>
+          <c:y val="9.0452261306532666E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2285336603666898E-2"/>
+          <c:y val="0.23622970495522233"/>
+          <c:w val="0.88363998916379127"/>
+          <c:h val="0.65637083053060574"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Jacobi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$4:$K$103</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000E+00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.632361924496267E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8965749648048636E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6512809362128161E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5993933734698245E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6399215487044858E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0506809814762665E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7227982299999472E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6580316270196305E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8407367862911758E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1364625613676174E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6075396771690265E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6521918157596183E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.678368776831015E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9312586654971734E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5907246196302713E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6913528455445645E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6557550494202605E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5543666999363649E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6461200792238875E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6258623979147888E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0791385651216278E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7602301469458292E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8954992999302948E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9606729209214931E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7643780925513552E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6029777033197536E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8362850128856479E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7010954385628196E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7046214700436052E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.10957483940692E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0587604588530425E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9697821944961994E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7176489487190418E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.91206468407346E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8024981999234623E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9611853734065118E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.904233270751896E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9561523941316729E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7594177975623342E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6131524519897278E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8752456206773872E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7692074503107533E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7413481760433559E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7765852449056442E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0588633924168079E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0099962259190449E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.895223663815427E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9046916620377748E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7370423689014657E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8259862075189658E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0626543041139415E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8823738537362463E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0832222106036315E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.641451869482837E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6015259421893396E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6542179126028733E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8536458684640586E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9204584115620802E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0265145624858363E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6301830549723599E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6049155606767758E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8422676978709172E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6223847242536572E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7607415432400807E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7545741697619618E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5670407482619797E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9625605663618182E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.703201117932423E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7697641997921255E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8212687830078641E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.703872877038785E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8893432732395419E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.0007675040493582E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.768142533688493E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9865452639360875E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1104116577044906E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5629982402529523E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8748978795198339E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8931397642383046E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5707957392691537E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0820020794169843E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0449668323635549E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9232026406669719E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9816606273733485E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8384283872937579E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7180436266445385E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8332843748991583E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8461712201655295E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.075926862737551E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.65838301148798E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7597301757257478E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5988400395107904E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7140635457177203E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9987205949741351E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9737847425533796E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9689634692999902E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9412750718641077E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.0445306932636525E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9826433245216679E-5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7361195497714133E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$4:$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Gauss-Seidel</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$4:$K$103</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000E+00</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.632361924496267E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8965749648048636E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6512809362128161E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5993933734698245E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6399215487044858E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0506809814762665E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7227982299999472E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6580316270196305E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8407367862911758E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1364625613676174E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6075396771690265E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6521918157596183E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.678368776831015E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9312586654971734E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5907246196302713E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6913528455445645E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6557550494202605E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5543666999363649E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6461200792238875E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6258623979147888E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0791385651216278E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7602301469458292E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8954992999302948E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9606729209214931E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7643780925513552E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6029777033197536E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8362850128856479E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7010954385628196E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7046214700436052E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.10957483940692E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0587604588530425E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9697821944961994E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7176489487190418E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.91206468407346E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8024981999234623E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.9611853734065118E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.904233270751896E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.9561523941316729E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.7594177975623342E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6131524519897278E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8752456206773872E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7692074503107533E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.7413481760433559E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7765852449056442E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0588633924168079E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.0099962259190449E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.895223663815427E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9046916620377748E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7370423689014657E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8259862075189658E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.0626543041139415E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8823738537362463E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0832222106036315E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.641451869482837E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.6015259421893396E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.6542179126028733E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8536458684640586E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.9204584115620802E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0265145624858363E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6301830549723599E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6049155606767758E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.8422676978709172E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6223847242536572E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.7607415432400807E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7545741697619618E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5670407482619797E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.9625605663618182E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.703201117932423E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7697641997921255E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.8212687830078641E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.703872877038785E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.8893432732395419E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.0007675040493582E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.768142533688493E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9865452639360875E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.1104116577044906E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5629982402529523E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8748978795198339E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8931397642383046E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5707957392691537E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0820020794169843E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0449668323635549E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.9232026406669719E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9816606273733485E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8384283872937579E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.7180436266445385E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8332843748991583E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8461712201655295E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.075926862737551E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.65838301148798E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7597301757257478E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.5988400395107904E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7140635457177203E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9987205949741351E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9737847425533796E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9689634692999902E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.9412750718641077E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.0445306932636525E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9826433245216679E-5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7361195497714133E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$4:$G$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="155178088"/>
+        <c:axId val="155180832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="155178088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.5000000000000005E-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Xo-Xexact</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155180832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="155180832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Iteration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> times</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="155178088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="23">
   <a:schemeClr val="accent3"/>
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2393,6 +4708,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3790950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -2658,8 +5008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4418,4 +6768,4142 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="300" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>4.7358102700769802E-2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5.89375925122173E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>6.9465657768814401E-2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.6323619244897299E-5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3.05068461649333E-5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K4" s="8">
+        <f>SQRT((A4-H4)*(A4-H4)+(B4-I4)*(B4-I4)+(C4-J4)*(C4-J4))</f>
+        <v>1.632361924496267E-5</v>
+      </c>
+      <c r="L4" s="11">
+        <f>E4/G4</f>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4.7356432632174497E-2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5.8936010143824401E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6.9464358602070897E-2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.89657496480025E-5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>34</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9.8036378752926193E-6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" ref="K5:K68" si="0">SQRT((A5-H5)*(A5-H5)+(B5-I5)*(B5-I5)+(C5-J5)*(C5-J5))</f>
+        <v>1.8965749648048636E-5</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" ref="L5:L68" si="1">E5/G5</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4.7378858950497899E-2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5.8957257669893598E-2</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6.9481803688251104E-2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1.6512809362212102E-5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>34</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3.1908833269604402E-6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6512809362128161E-5</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4.7378531672699502E-2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5.8956946308760597E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6.9481548391679193E-2</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.5993933734765499E-5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8">
+        <v>8.4873241889725201E-6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5993933734698245E-5</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="1"/>
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4.7358054905220798E-2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5.8937547247971303E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>6.9465620599935801E-2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.63992154869848E-5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>36</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.8576660485045701E-5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6399215487044858E-5</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="1"/>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4.73813835533302E-2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5.8959649646756603E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6.9483767578992495E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.0506809814802401E-5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1.46037691643903E-5</v>
+      </c>
+      <c r="G9" s="5">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0506809814762665E-5</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>4.7379311243599301E-2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5.8957685779107899E-2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>6.9482155292958606E-2</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1.7227982300090199E-5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2.64667969513408E-6</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7227982299999472E-5</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" si="1"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4.7357940434066402E-2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5.8937438785962103E-2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6.9465531550280707E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.6580316270132602E-5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>36</v>
+      </c>
+      <c r="F11" s="8">
+        <v>9.4089754769854902E-6</v>
+      </c>
+      <c r="G11" s="5">
+        <v>8</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6580316270196305E-5</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>4.7380056587673899E-2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5.8958392229410697E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>6.9482735241694293E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.8407367862981801E-5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>35</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.31356396563695E-5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8407367862911758E-5</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>4.7358920724078199E-2</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5.8931749085380597E-2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6.9462628563184095E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2.1364625613611701E-5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5.8408885608309997E-6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1364625613676174E-5</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>4.7358259590215002E-2</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5.89377411809337E-2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6.9465779824995702E-2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.6075396771671299E-5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>36</v>
+      </c>
+      <c r="F14" s="8">
+        <v>8.9234646215109503E-6</v>
+      </c>
+      <c r="G14" s="5">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6075396771690265E-5</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>4.7378865190595199E-2</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5.89572627061003E-2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6.9481808057225897E-2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.6521918157676099E-5</v>
+      </c>
+      <c r="E15" s="5">
+        <v>31</v>
+      </c>
+      <c r="F15" s="8">
+        <v>6.4690663634330902E-6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>8</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6521918157596183E-5</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="1"/>
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>4.7357811858782198E-2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5.8937317009496303E-2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6.94654315560021E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.6783687768216898E-5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>33</v>
+      </c>
+      <c r="F16" s="8">
+        <v>9.6153807221271503E-7</v>
+      </c>
+      <c r="G16" s="5">
+        <v>9</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="0"/>
+        <v>1.678368776831015E-5</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>4.73806287764637E-2</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5.8958934357196402E-2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6.9483180346754395E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1.9312586655068699E-5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>32</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4.4374998623198701E-6</v>
+      </c>
+      <c r="G17" s="5">
+        <v>8</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9312586654971734E-5</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>4.7358365859984701E-2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5.8937841900686003E-2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6.94658625104497E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1.5907246196291901E-5</v>
+      </c>
+      <c r="E18" s="5">
+        <v>34</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4.8052621477413804E-6</v>
+      </c>
+      <c r="G18" s="5">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5907246196302713E-5</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="1"/>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>4.7379112263659498E-2</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.8957497640952303E-2</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6.9482000721561202E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1.6913528455468901E-5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>33</v>
+      </c>
+      <c r="F19" s="8">
+        <v>8.1649839854844795E-6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>8</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I19" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6913528455445645E-5</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="1"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>4.7357953642069697E-2</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5.8937453446989703E-2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6.9465543013818895E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1.6557550494130499E-5</v>
+      </c>
+      <c r="E20" s="5">
+        <v>30</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2.59639764098245E-6</v>
+      </c>
+      <c r="G20" s="5">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I20" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6557550494202605E-5</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>4.7358595725563099E-2</v>
+      </c>
+      <c r="B21" s="5">
+        <v>5.8938059604188901E-2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6.9466041275201298E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.5543666999232701E-5</v>
+      </c>
+      <c r="E21" s="5">
+        <v>35</v>
+      </c>
+      <c r="F21" s="8">
+        <v>8.6235176639260907E-6</v>
+      </c>
+      <c r="G21" s="5">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I21" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J21" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5543666999363649E-5</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>4.7358015613120301E-2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>5.8937510222065399E-2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6.9465590146477393E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1.64612007921372E-5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>32</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2.99199045793285E-6</v>
+      </c>
+      <c r="G22" s="5">
+        <v>8</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I22" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J22" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6461200792238875E-5</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>4.7378696718198603E-2</v>
+      </c>
+      <c r="B23" s="5">
+        <v>5.8957106796545602E-2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6.9481679058467805E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1.6258623979235702E-5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>30</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2.1129936846890901E-5</v>
+      </c>
+      <c r="G23" s="5">
+        <v>7</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I23" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J23" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6258623979147888E-5</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" si="1"/>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>4.7355278390217297E-2</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5.89349170096383E-2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6.9463460977390298E-2</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2.0791385651145199E-5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>32</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1.16180589358591E-6</v>
+      </c>
+      <c r="G24" s="5">
+        <v>9</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I24" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0791385651216278E-5</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="1"/>
+        <v>3.5555555555555554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>4.73572985095147E-2</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5.8936823192209303E-2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6.9465028102839999E-2</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1.7602301469418699E-5</v>
+      </c>
+      <c r="E25" s="5">
+        <v>26</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5.2403408981445203E-6</v>
+      </c>
+      <c r="G25" s="5">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J25" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7602301469458292E-5</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>4.7356439353140801E-2</v>
+      </c>
+      <c r="B26" s="5">
+        <v>5.8936016653897999E-2</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6.9464363909062105E-2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1.8954992999213399E-5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>35</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2.84332483472914E-6</v>
+      </c>
+      <c r="G26" s="5">
+        <v>8</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I26" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J26" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8954992999302948E-5</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>4.7356025644423802E-2</v>
+      </c>
+      <c r="B27" s="5">
+        <v>5.8935627851356601E-2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>6.9464043841816606E-2</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1.96067292091685E-5</v>
+      </c>
+      <c r="E27" s="5">
+        <v>29</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1.52453431227664E-6</v>
+      </c>
+      <c r="G27" s="5">
+        <v>8</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I27" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J27" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9606729209214931E-5</v>
+      </c>
+      <c r="L27" s="11">
+        <f t="shared" si="1"/>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>4.7379582882960701E-2</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5.8957927138964299E-2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6.9482357734902994E-2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1.7643780925622999E-5</v>
+      </c>
+      <c r="E28" s="5">
+        <v>27</v>
+      </c>
+      <c r="F28" s="8">
+        <v>4.5392350051064902E-6</v>
+      </c>
+      <c r="G28" s="5">
+        <v>8</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I28" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J28" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7643780925513552E-5</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="1"/>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>4.7358288358351902E-2</v>
+      </c>
+      <c r="B29" s="5">
+        <v>5.8937768561345402E-2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>6.9465802272187904E-2</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1.60297770331347E-5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>33</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1.61117671015163E-6</v>
+      </c>
+      <c r="G29" s="5">
+        <v>8</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I29" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J29" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6029777033197536E-5</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="1"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>4.7356814475484697E-2</v>
+      </c>
+      <c r="B30" s="5">
+        <v>5.8936370563428798E-2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>6.9464654882784194E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1.8362850128752301E-5</v>
+      </c>
+      <c r="E30" s="5">
+        <v>30</v>
+      </c>
+      <c r="F30" s="8">
+        <v>8.7579598569811504E-6</v>
+      </c>
+      <c r="G30" s="5">
+        <v>8</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J30" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8362850128856479E-5</v>
+      </c>
+      <c r="L30" s="11">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>4.7379173797013098E-2</v>
+      </c>
+      <c r="B31" s="5">
+        <v>5.8957556031561401E-2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6.9482048638151495E-2</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1.70109543856913E-5</v>
+      </c>
+      <c r="E31" s="5">
+        <v>32</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1.37504503003945E-5</v>
+      </c>
+      <c r="G31" s="5">
+        <v>7</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I31" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J31" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7010954385628196E-5</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>4.7379195869868197E-2</v>
+      </c>
+      <c r="B32" s="5">
+        <v>5.8957577335536998E-2</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6.9482066025018496E-2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1.7046214700517001E-5</v>
+      </c>
+      <c r="E32" s="5">
+        <v>32</v>
+      </c>
+      <c r="F32" s="8">
+        <v>9.5256886477549005E-6</v>
+      </c>
+      <c r="G32" s="5">
+        <v>8</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I32" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J32" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7046214700436052E-5</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>4.7381756739072203E-2</v>
+      </c>
+      <c r="B33" s="5">
+        <v>5.8960001560052697E-2</v>
+      </c>
+      <c r="C33" s="7">
+        <v>6.9484056956858303E-2</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2.1095748394125301E-5</v>
+      </c>
+      <c r="E33" s="5">
+        <v>30</v>
+      </c>
+      <c r="F33" s="8">
+        <v>5.1702962684509501E-6</v>
+      </c>
+      <c r="G33" s="5">
+        <v>8</v>
+      </c>
+      <c r="H33" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I33" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J33" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="0"/>
+        <v>2.10957483940692E-5</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>4.73814217711419E-2</v>
+      </c>
+      <c r="B34" s="5">
+        <v>5.8959709187336597E-2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>6.9483810229903797E-2</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2.0587604588585001E-5</v>
+      </c>
+      <c r="E34" s="5">
+        <v>26</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1.9818611854185301E-5</v>
+      </c>
+      <c r="G34" s="5">
+        <v>7</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I34" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J34" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0587604588530425E-5</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" si="1"/>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>4.7380872218409802E-2</v>
+      </c>
+      <c r="B35" s="5">
+        <v>5.8959165128002998E-2</v>
+      </c>
+      <c r="C35" s="7">
+        <v>6.9483369785639099E-2</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1.9697821945033E-5</v>
+      </c>
+      <c r="E35" s="5">
+        <v>33</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1.3428493027482401E-6</v>
+      </c>
+      <c r="G35" s="5">
+        <v>9</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I35" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J35" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9697821944961994E-5</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>4.7357563550667801E-2</v>
+      </c>
+      <c r="B36" s="5">
+        <v>5.8937081779673099E-2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>6.94652384156354E-2</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1.7176489487159199E-5</v>
+      </c>
+      <c r="E36" s="5">
+        <v>35</v>
+      </c>
+      <c r="F36" s="8">
+        <v>6.3507400354582098E-6</v>
+      </c>
+      <c r="G36" s="5">
+        <v>8</v>
+      </c>
+      <c r="H36" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I36" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J36" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7176489487190418E-5</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>4.7380508473341701E-2</v>
+      </c>
+      <c r="B37" s="5">
+        <v>5.8958818518449703E-2</v>
+      </c>
+      <c r="C37" s="7">
+        <v>6.9483085735178293E-2</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1.9120646840823701E-5</v>
+      </c>
+      <c r="E37" s="5">
+        <v>29</v>
+      </c>
+      <c r="F37" s="8">
+        <v>9.1322896580068302E-7</v>
+      </c>
+      <c r="G37" s="5">
+        <v>9</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I37" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J37" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K37" s="8">
+        <f t="shared" si="0"/>
+        <v>1.91206468407346E-5</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2222222222222223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>4.7357027305032398E-2</v>
+      </c>
+      <c r="B38" s="5">
+        <v>5.8936573549673903E-2</v>
+      </c>
+      <c r="C38" s="7">
+        <v>6.9464821183750095E-2</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1.8024981999148801E-5</v>
+      </c>
+      <c r="E38" s="5">
+        <v>33</v>
+      </c>
+      <c r="F38" s="8">
+        <v>3.00598272349467E-6</v>
+      </c>
+      <c r="G38" s="5">
+        <v>8</v>
+      </c>
+      <c r="H38" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I38" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J38" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8024981999234623E-5</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="1"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>4.7380817942541703E-2</v>
+      </c>
+      <c r="B39" s="5">
+        <v>5.8959113586243901E-2</v>
+      </c>
+      <c r="C39" s="7">
+        <v>6.9483327499491807E-2</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1.96118537341675E-5</v>
+      </c>
+      <c r="E39" s="5">
+        <v>33</v>
+      </c>
+      <c r="F39" s="8">
+        <v>3.5582473424002498E-6</v>
+      </c>
+      <c r="G39" s="5">
+        <v>8</v>
+      </c>
+      <c r="H39" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I39" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J39" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9611853734065118E-5</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="1"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>4.7356384489944198E-2</v>
+      </c>
+      <c r="B40" s="5">
+        <v>5.8935964047954002E-2</v>
+      </c>
+      <c r="C40" s="7">
+        <v>6.9464320884843403E-2</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1.90423327074367E-5</v>
+      </c>
+      <c r="E40" s="5">
+        <v>28</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1.0938126581501899E-6</v>
+      </c>
+      <c r="G40" s="5">
+        <v>9</v>
+      </c>
+      <c r="H40" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I40" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J40" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K40" s="8">
+        <f t="shared" si="0"/>
+        <v>1.904233270751896E-5</v>
+      </c>
+      <c r="L40" s="11">
+        <f t="shared" si="1"/>
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4.7356056495008798E-2</v>
+      </c>
+      <c r="B41" s="5">
+        <v>5.8935652947386702E-2</v>
+      </c>
+      <c r="C41" s="7">
+        <v>6.9464065551031198E-2</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1.9561523941221099E-5</v>
+      </c>
+      <c r="E41" s="5">
+        <v>30</v>
+      </c>
+      <c r="F41" s="8">
+        <v>8.8470527292358507E-6</v>
+      </c>
+      <c r="G41" s="5">
+        <v>8</v>
+      </c>
+      <c r="H41" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I41" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J41" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9561523941316729E-5</v>
+      </c>
+      <c r="L41" s="11">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>4.7357299560761401E-2</v>
+      </c>
+      <c r="B42" s="5">
+        <v>5.89368316027057E-2</v>
+      </c>
+      <c r="C42" s="7">
+        <v>6.9465033027003603E-2</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1.7594177975575502E-5</v>
+      </c>
+      <c r="E42" s="5">
+        <v>36</v>
+      </c>
+      <c r="F42" s="8">
+        <v>2.7270580366245101E-5</v>
+      </c>
+      <c r="G42" s="5">
+        <v>7</v>
+      </c>
+      <c r="H42" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I42" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J42" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7594177975623342E-5</v>
+      </c>
+      <c r="L42" s="11">
+        <f t="shared" si="1"/>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>4.7358224426896502E-2</v>
+      </c>
+      <c r="B43" s="5">
+        <v>5.8937707292925502E-2</v>
+      </c>
+      <c r="C43" s="7">
+        <v>6.9465752154659999E-2</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1.61315245197805E-5</v>
+      </c>
+      <c r="E43" s="5">
+        <v>32</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2.8300757386924E-6</v>
+      </c>
+      <c r="G43" s="5">
+        <v>8</v>
+      </c>
+      <c r="H43" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I43" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J43" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K43" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6131524519897278E-5</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>4.7380274696785497E-2</v>
+      </c>
+      <c r="B44" s="5">
+        <v>5.8958598918300499E-2</v>
+      </c>
+      <c r="C44" s="7">
+        <v>6.9482904929892203E-2</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1.87524562069067E-5</v>
+      </c>
+      <c r="E44" s="5">
+        <v>32</v>
+      </c>
+      <c r="F44" s="8">
+        <v>9.9749401257988001E-6</v>
+      </c>
+      <c r="G44" s="5">
+        <v>8</v>
+      </c>
+      <c r="H44" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I44" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J44" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K44" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8752456206773872E-5</v>
+      </c>
+      <c r="L44" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>4.7379619293172102E-2</v>
+      </c>
+      <c r="B45" s="5">
+        <v>5.8957950943573402E-2</v>
+      </c>
+      <c r="C45" s="7">
+        <v>6.9482380136360697E-2</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1.76920745031972E-5</v>
+      </c>
+      <c r="E45" s="5">
+        <v>26</v>
+      </c>
+      <c r="F45" s="8">
+        <v>6.3240054948125104E-7</v>
+      </c>
+      <c r="G45" s="5">
+        <v>9</v>
+      </c>
+      <c r="H45" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I45" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J45" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K45" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7692074503107533E-5</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="1"/>
+        <v>2.8888888888888888</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>4.7357413791558903E-2</v>
+      </c>
+      <c r="B46" s="5">
+        <v>5.8936939809074197E-2</v>
+      </c>
+      <c r="C46" s="7">
+        <v>6.9465121874227001E-2</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1.7413481760309601E-5</v>
+      </c>
+      <c r="E46" s="5">
+        <v>34</v>
+      </c>
+      <c r="F46" s="8">
+        <v>4.8809707701677701E-6</v>
+      </c>
+      <c r="G46" s="5">
+        <v>8</v>
+      </c>
+      <c r="H46" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I46" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J46" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K46" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7413481760433559E-5</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>4.7379651293728203E-2</v>
+      </c>
+      <c r="B47" s="5">
+        <v>5.8958007850732602E-2</v>
+      </c>
+      <c r="C47" s="7">
+        <v>6.9482419754827496E-2</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1.7765852449111499E-5</v>
+      </c>
+      <c r="E47" s="5">
+        <v>32</v>
+      </c>
+      <c r="F47" s="8">
+        <v>9.0341654644472994E-6</v>
+      </c>
+      <c r="G47" s="5">
+        <v>8</v>
+      </c>
+      <c r="H47" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I47" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J47" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K47" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7765852449056442E-5</v>
+      </c>
+      <c r="L47" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>4.73814353522269E-2</v>
+      </c>
+      <c r="B48" s="5">
+        <v>5.8959698582883198E-2</v>
+      </c>
+      <c r="C48" s="7">
+        <v>6.9483807794977398E-2</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2.05886339242512E-5</v>
+      </c>
+      <c r="E48" s="5">
+        <v>34</v>
+      </c>
+      <c r="F48" s="8">
+        <v>2.3736790961681202E-6</v>
+      </c>
+      <c r="G48" s="5">
+        <v>8</v>
+      </c>
+      <c r="H48" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I48" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J48" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K48" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0588633924168079E-5</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>4.73557182848931E-2</v>
+      </c>
+      <c r="B49" s="5">
+        <v>5.8935328626000497E-2</v>
+      </c>
+      <c r="C49" s="7">
+        <v>6.9463800308983595E-2</v>
+      </c>
+      <c r="D49" s="8">
+        <v>2.0099962259070899E-5</v>
+      </c>
+      <c r="E49" s="5">
+        <v>27</v>
+      </c>
+      <c r="F49" s="8">
+        <v>4.4413446919730297E-6</v>
+      </c>
+      <c r="G49" s="5">
+        <v>8</v>
+      </c>
+      <c r="H49" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I49" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J49" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K49" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0099962259190449E-5</v>
+      </c>
+      <c r="L49" s="11">
+        <f t="shared" si="1"/>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>4.73564450569572E-2</v>
+      </c>
+      <c r="B50" s="5">
+        <v>5.8936014865152202E-2</v>
+      </c>
+      <c r="C50" s="7">
+        <v>6.9464364362372397E-2</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1.8952236638061201E-5</v>
+      </c>
+      <c r="E50" s="5">
+        <v>27</v>
+      </c>
+      <c r="F50" s="8">
+        <v>7.1762109210312296E-7</v>
+      </c>
+      <c r="G50" s="5">
+        <v>9</v>
+      </c>
+      <c r="H50" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I50" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J50" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K50" s="8">
+        <f t="shared" si="0"/>
+        <v>1.895223663815427E-5</v>
+      </c>
+      <c r="L50" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>4.7380460858117299E-2</v>
+      </c>
+      <c r="B51" s="5">
+        <v>5.8958775239543501E-2</v>
+      </c>
+      <c r="C51" s="7">
+        <v>6.9483049711502001E-2</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1.9046916620504502E-5</v>
+      </c>
+      <c r="E51" s="5">
+        <v>34</v>
+      </c>
+      <c r="F51" s="8">
+        <v>5.1871414466815698E-6</v>
+      </c>
+      <c r="G51" s="5">
+        <v>8</v>
+      </c>
+      <c r="H51" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I51" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J51" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K51" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9046916620377748E-5</v>
+      </c>
+      <c r="L51" s="11">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>4.7357582249233102E-2</v>
+      </c>
+      <c r="B52" s="5">
+        <v>5.893684411649E-2</v>
+      </c>
+      <c r="C52" s="7">
+        <v>6.9465111522879E-2</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1.7370423688946301E-5</v>
+      </c>
+      <c r="E52" s="5">
+        <v>19</v>
+      </c>
+      <c r="F52" s="8">
+        <v>5.5808622754131097E-6</v>
+      </c>
+      <c r="G52" s="5">
+        <v>8</v>
+      </c>
+      <c r="H52" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I52" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J52" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K52" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7370423689014657E-5</v>
+      </c>
+      <c r="L52" s="11">
+        <f t="shared" si="1"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>4.7379964123794797E-2</v>
+      </c>
+      <c r="B53" s="5">
+        <v>5.8958303216787897E-2</v>
+      </c>
+      <c r="C53" s="7">
+        <v>6.9482662535166995E-2</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1.82598620752081E-5</v>
+      </c>
+      <c r="E53" s="5">
+        <v>30</v>
+      </c>
+      <c r="F53" s="8">
+        <v>7.9633421469919597E-7</v>
+      </c>
+      <c r="G53" s="5">
+        <v>9</v>
+      </c>
+      <c r="H53" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I53" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J53" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K53" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8259862075189658E-5</v>
+      </c>
+      <c r="L53" s="11">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>4.7381459384820898E-2</v>
+      </c>
+      <c r="B54" s="5">
+        <v>5.8959721225327999E-2</v>
+      </c>
+      <c r="C54" s="7">
+        <v>6.9483826419264205E-2</v>
+      </c>
+      <c r="D54" s="8">
+        <v>2.0626543041235001E-5</v>
+      </c>
+      <c r="E54" s="5">
+        <v>34</v>
+      </c>
+      <c r="F54" s="8">
+        <v>8.6414746948429402E-6</v>
+      </c>
+      <c r="G54" s="5">
+        <v>8</v>
+      </c>
+      <c r="H54" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I54" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J54" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K54" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0626543041139415E-5</v>
+      </c>
+      <c r="L54" s="11">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>4.73803196477477E-2</v>
+      </c>
+      <c r="B55" s="5">
+        <v>5.8958641701251903E-2</v>
+      </c>
+      <c r="C55" s="7">
+        <v>6.9482940004405497E-2</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1.8823738537408E-5</v>
+      </c>
+      <c r="E55" s="5">
+        <v>32</v>
+      </c>
+      <c r="F55" s="8">
+        <v>9.7230716977796492E-6</v>
+      </c>
+      <c r="G55" s="5">
+        <v>8</v>
+      </c>
+      <c r="H55" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I55" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J55" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K55" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8823738537362463E-5</v>
+      </c>
+      <c r="L55" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>4.7381589325057698E-2</v>
+      </c>
+      <c r="B56" s="5">
+        <v>5.8959844465114597E-2</v>
+      </c>
+      <c r="C56" s="7">
+        <v>6.9483927569533505E-2</v>
+      </c>
+      <c r="D56" s="8">
+        <v>2.0832222106132798E-5</v>
+      </c>
+      <c r="E56" s="5">
+        <v>33</v>
+      </c>
+      <c r="F56" s="8">
+        <v>9.4584065434390092E-6</v>
+      </c>
+      <c r="G56" s="5">
+        <v>8</v>
+      </c>
+      <c r="H56" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I56" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J56" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K56" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0832222106036315E-5</v>
+      </c>
+      <c r="L56" s="11">
+        <f t="shared" si="1"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>4.7358045231872099E-2</v>
+      </c>
+      <c r="B57" s="5">
+        <v>5.8937538083177199E-2</v>
+      </c>
+      <c r="C57" s="7">
+        <v>6.9465613075240296E-2</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1.6414518694723998E-5</v>
+      </c>
+      <c r="E57" s="5">
+        <v>36</v>
+      </c>
+      <c r="F57" s="8">
+        <v>2.01034153722498E-5</v>
+      </c>
+      <c r="G57" s="5">
+        <v>7</v>
+      </c>
+      <c r="H57" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I57" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J57" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K57" s="8">
+        <f t="shared" si="0"/>
+        <v>1.641451869482837E-5</v>
+      </c>
+      <c r="L57" s="11">
+        <f t="shared" si="1"/>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>4.7358297427156297E-2</v>
+      </c>
+      <c r="B58" s="5">
+        <v>5.8937777349419102E-2</v>
+      </c>
+      <c r="C58" s="7">
+        <v>6.9465809435195702E-2</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1.60152594218236E-5</v>
+      </c>
+      <c r="E58" s="5">
+        <v>31</v>
+      </c>
+      <c r="F58" s="8">
+        <v>4.60602691373282E-6</v>
+      </c>
+      <c r="G58" s="5">
+        <v>8</v>
+      </c>
+      <c r="H58" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I58" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J58" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K58" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6015259421893396E-5</v>
+      </c>
+      <c r="L58" s="11">
+        <f t="shared" si="1"/>
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>4.7378877791928502E-2</v>
+      </c>
+      <c r="B59" s="5">
+        <v>5.8957275018802803E-2</v>
+      </c>
+      <c r="C59" s="7">
+        <v>6.9481818066593995E-2</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1.65421791260881E-5</v>
+      </c>
+      <c r="E59" s="5">
+        <v>32</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1.12046793068437E-6</v>
+      </c>
+      <c r="G59" s="5">
+        <v>9</v>
+      </c>
+      <c r="H59" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I59" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J59" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K59" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6542179126028733E-5</v>
+      </c>
+      <c r="L59" s="11">
+        <f t="shared" si="1"/>
+        <v>3.5555555555555554</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>4.7380138173477498E-2</v>
+      </c>
+      <c r="B60" s="5">
+        <v>5.8958469551657497E-2</v>
+      </c>
+      <c r="C60" s="7">
+        <v>6.94827987197804E-2</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1.8536458684692201E-5</v>
+      </c>
+      <c r="E60" s="5">
+        <v>34</v>
+      </c>
+      <c r="F60" s="8">
+        <v>2.0957158777985801E-6</v>
+      </c>
+      <c r="G60" s="5">
+        <v>8</v>
+      </c>
+      <c r="H60" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I60" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J60" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K60" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8536458684640586E-5</v>
+      </c>
+      <c r="L60" s="11">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>4.7380560512679498E-2</v>
+      </c>
+      <c r="B61" s="5">
+        <v>5.8958869671387998E-2</v>
+      </c>
+      <c r="C61" s="7">
+        <v>6.9483127239781894E-2</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1.92045841156798E-5</v>
+      </c>
+      <c r="E61" s="5">
+        <v>36</v>
+      </c>
+      <c r="F61" s="8">
+        <v>6.1646228392512704E-6</v>
+      </c>
+      <c r="G61" s="5">
+        <v>8</v>
+      </c>
+      <c r="H61" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I61" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J61" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K61" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9204584115620802E-5</v>
+      </c>
+      <c r="L61" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>4.7381230526205097E-2</v>
+      </c>
+      <c r="B62" s="5">
+        <v>5.8959505151651298E-2</v>
+      </c>
+      <c r="C62" s="7">
+        <v>6.9483648812090903E-2</v>
+      </c>
+      <c r="D62" s="8">
+        <v>2.02651456249134E-5</v>
+      </c>
+      <c r="E62" s="5">
+        <v>30</v>
+      </c>
+      <c r="F62" s="8">
+        <v>7.4680615326126104E-7</v>
+      </c>
+      <c r="G62" s="5">
+        <v>9</v>
+      </c>
+      <c r="H62" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I62" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J62" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K62" s="8">
+        <f t="shared" si="0"/>
+        <v>2.0265145624858363E-5</v>
+      </c>
+      <c r="L62" s="11">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>4.7378725642151398E-2</v>
+      </c>
+      <c r="B63" s="5">
+        <v>5.8957131271886801E-2</v>
+      </c>
+      <c r="C63" s="7">
+        <v>6.9481699936175895E-2</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1.6301830549843099E-5</v>
+      </c>
+      <c r="E63" s="5">
+        <v>36</v>
+      </c>
+      <c r="F63" s="8">
+        <v>2.0390913668904799E-5</v>
+      </c>
+      <c r="G63" s="5">
+        <v>7</v>
+      </c>
+      <c r="H63" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I63" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J63" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K63" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6301830549723599E-5</v>
+      </c>
+      <c r="L63" s="11">
+        <f t="shared" si="1"/>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>4.7378570303393097E-2</v>
+      </c>
+      <c r="B64" s="5">
+        <v>5.8956976144545398E-2</v>
+      </c>
+      <c r="C64" s="7">
+        <v>6.9481574695552994E-2</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1.60491556068058E-5</v>
+      </c>
+      <c r="E64" s="5">
+        <v>27</v>
+      </c>
+      <c r="F64" s="8">
+        <v>7.8629006500215699E-6</v>
+      </c>
+      <c r="G64" s="5">
+        <v>8</v>
+      </c>
+      <c r="H64" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I64" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J64" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K64" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6049155606767758E-5</v>
+      </c>
+      <c r="L64" s="11">
+        <f t="shared" si="1"/>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>4.7380066275804399E-2</v>
+      </c>
+      <c r="B65" s="5">
+        <v>5.8958401388149097E-2</v>
+      </c>
+      <c r="C65" s="7">
+        <v>6.9482742766778002E-2</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1.8422676978765398E-5</v>
+      </c>
+      <c r="E65" s="5">
+        <v>35</v>
+      </c>
+      <c r="F65" s="8">
+        <v>4.3289459471715404E-6</v>
+      </c>
+      <c r="G65" s="5">
+        <v>8</v>
+      </c>
+      <c r="H65" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I65" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J65" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K65" s="8">
+        <f t="shared" si="0"/>
+        <v>1.8422676978709172E-5</v>
+      </c>
+      <c r="L65" s="11">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>4.7358165768474098E-2</v>
+      </c>
+      <c r="B66" s="5">
+        <v>5.89376522632327E-2</v>
+      </c>
+      <c r="C66" s="7">
+        <v>6.9465706827282606E-2</v>
+      </c>
+      <c r="D66" s="8">
+        <v>1.6223847242481701E-5</v>
+      </c>
+      <c r="E66" s="5">
+        <v>34</v>
+      </c>
+      <c r="F66" s="8">
+        <v>1.56599643270496E-6</v>
+      </c>
+      <c r="G66" s="5">
+        <v>8</v>
+      </c>
+      <c r="H66" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I66" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J66" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K66" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6223847242536572E-5</v>
+      </c>
+      <c r="L66" s="11">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>4.7379551162618501E-2</v>
+      </c>
+      <c r="B67" s="5">
+        <v>5.8957912949458902E-2</v>
+      </c>
+      <c r="C67" s="7">
+        <v>6.9482341845918102E-2</v>
+      </c>
+      <c r="D67" s="8">
+        <v>1.7607415432461698E-5</v>
+      </c>
+      <c r="E67" s="5">
+        <v>31</v>
+      </c>
+      <c r="F67" s="8">
+        <v>1.65824587148012E-6</v>
+      </c>
+      <c r="G67" s="5">
+        <v>8</v>
+      </c>
+      <c r="H67" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I67" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J67" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K67" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7607415432400807E-5</v>
+      </c>
+      <c r="L67" s="11">
+        <f t="shared" si="1"/>
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>4.7379511912386603E-2</v>
+      </c>
+      <c r="B68" s="5">
+        <v>5.8957876244826603E-2</v>
+      </c>
+      <c r="C68" s="7">
+        <v>6.9482311580991801E-2</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1.7545741697697599E-5</v>
+      </c>
+      <c r="E68" s="5">
+        <v>35</v>
+      </c>
+      <c r="F68" s="8">
+        <v>5.7771326298834103E-6</v>
+      </c>
+      <c r="G68" s="5">
+        <v>8</v>
+      </c>
+      <c r="H68" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I68" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J68" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K68" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7545741697619618E-5</v>
+      </c>
+      <c r="L68" s="11">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>4.7378326501471398E-2</v>
+      </c>
+      <c r="B69" s="5">
+        <v>5.8956753133792603E-2</v>
+      </c>
+      <c r="C69" s="7">
+        <v>6.94813894633282E-2</v>
+      </c>
+      <c r="D69" s="8">
+        <v>1.5670407482718999E-5</v>
+      </c>
+      <c r="E69" s="5">
+        <v>35</v>
+      </c>
+      <c r="F69" s="8">
+        <v>1.39434826681236E-6</v>
+      </c>
+      <c r="G69" s="5">
+        <v>8</v>
+      </c>
+      <c r="H69" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I69" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J69" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K69" s="8">
+        <f t="shared" ref="K69:K103" si="2">SQRT((A69-H69)*(A69-H69)+(B69-I69)*(B69-I69)+(C69-J69)*(C69-J69))</f>
+        <v>1.5670407482619797E-5</v>
+      </c>
+      <c r="L69" s="11">
+        <f t="shared" ref="L69:L103" si="3">E69/G69</f>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>4.7380826631221902E-2</v>
+      </c>
+      <c r="B70" s="5">
+        <v>5.8959121825556203E-2</v>
+      </c>
+      <c r="C70" s="7">
+        <v>6.9483334262343696E-2</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1.9625605663650302E-5</v>
+      </c>
+      <c r="E70" s="5">
+        <v>34</v>
+      </c>
+      <c r="F70" s="8">
+        <v>2.9305042918263702E-6</v>
+      </c>
+      <c r="G70" s="5">
+        <v>8</v>
+      </c>
+      <c r="H70" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I70" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J70" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K70" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9625605663618182E-5</v>
+      </c>
+      <c r="L70" s="11">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>4.7357654914890197E-2</v>
+      </c>
+      <c r="B71" s="5">
+        <v>5.8937168272204001E-2</v>
+      </c>
+      <c r="C71" s="7">
+        <v>6.9465309448057302E-2</v>
+      </c>
+      <c r="D71" s="8">
+        <v>1.7032011179268302E-5</v>
+      </c>
+      <c r="E71" s="5">
+        <v>32</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1.64594466028998E-6</v>
+      </c>
+      <c r="G71" s="5">
+        <v>9</v>
+      </c>
+      <c r="H71" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I71" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J71" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K71" s="8">
+        <f t="shared" si="2"/>
+        <v>1.703201117932423E-5</v>
+      </c>
+      <c r="L71" s="11">
+        <f t="shared" si="3"/>
+        <v>3.5555555555555554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>4.7379607926713301E-2</v>
+      </c>
+      <c r="B72" s="5">
+        <v>5.8957967218224203E-2</v>
+      </c>
+      <c r="C72" s="7">
+        <v>6.9482386272298205E-2</v>
+      </c>
+      <c r="D72" s="8">
+        <v>1.7697641998019E-5</v>
+      </c>
+      <c r="E72" s="5">
+        <v>34</v>
+      </c>
+      <c r="F72" s="8">
+        <v>2.4980123064640102E-6</v>
+      </c>
+      <c r="G72" s="5">
+        <v>8</v>
+      </c>
+      <c r="H72" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I72" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J72" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K72" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7697641997921255E-5</v>
+      </c>
+      <c r="L72" s="11">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>4.7379933530438303E-2</v>
+      </c>
+      <c r="B73" s="5">
+        <v>5.8958275637195801E-2</v>
+      </c>
+      <c r="C73" s="7">
+        <v>6.9482639515588196E-2</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1.8212687830119699E-5</v>
+      </c>
+      <c r="E73" s="5">
+        <v>35</v>
+      </c>
+      <c r="F73" s="8">
+        <v>3.8648841326548002E-6</v>
+      </c>
+      <c r="G73" s="5">
+        <v>8</v>
+      </c>
+      <c r="H73" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I73" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J73" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K73" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8212687830078641E-5</v>
+      </c>
+      <c r="L73" s="11">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>4.73576506258436E-2</v>
+      </c>
+      <c r="B74" s="5">
+        <v>5.8937164286315499E-2</v>
+      </c>
+      <c r="C74" s="7">
+        <v>6.9465306154714704E-2</v>
+      </c>
+      <c r="D74" s="8">
+        <v>1.7038728770365901E-5</v>
+      </c>
+      <c r="E74" s="5">
+        <v>35</v>
+      </c>
+      <c r="F74" s="8">
+        <v>2.2846411231734799E-5</v>
+      </c>
+      <c r="G74" s="5">
+        <v>7</v>
+      </c>
+      <c r="H74" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I74" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J74" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K74" s="8">
+        <f t="shared" si="2"/>
+        <v>1.703872877038785E-5</v>
+      </c>
+      <c r="L74" s="11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>4.7380363614163E-2</v>
+      </c>
+      <c r="B75" s="5">
+        <v>5.8958683516309E-2</v>
+      </c>
+      <c r="C75" s="7">
+        <v>6.9482974293616398E-2</v>
+      </c>
+      <c r="D75" s="8">
+        <v>1.8893432732432702E-5</v>
+      </c>
+      <c r="E75" s="5">
+        <v>31</v>
+      </c>
+      <c r="F75" s="8">
+        <v>5.78959508913639E-6</v>
+      </c>
+      <c r="G75" s="5">
+        <v>8</v>
+      </c>
+      <c r="H75" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I75" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J75" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K75" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8893432732395419E-5</v>
+      </c>
+      <c r="L75" s="11">
+        <f t="shared" si="3"/>
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>4.7355774201393398E-2</v>
+      </c>
+      <c r="B76" s="5">
+        <v>5.8935385995776801E-2</v>
+      </c>
+      <c r="C76" s="7">
+        <v>6.9463846238235497E-2</v>
+      </c>
+      <c r="D76" s="8">
+        <v>2.0007675040367401E-5</v>
+      </c>
+      <c r="E76" s="5">
+        <v>32</v>
+      </c>
+      <c r="F76" s="8">
+        <v>4.8298882035552002E-6</v>
+      </c>
+      <c r="G76" s="5">
+        <v>8</v>
+      </c>
+      <c r="H76" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I76" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J76" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K76" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0007675040493582E-5</v>
+      </c>
+      <c r="L76" s="11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>4.7357244259217397E-2</v>
+      </c>
+      <c r="B77" s="5">
+        <v>5.89367794834363E-2</v>
+      </c>
+      <c r="C77" s="7">
+        <v>6.9464990161350104E-2</v>
+      </c>
+      <c r="D77" s="8">
+        <v>1.7681425336839099E-5</v>
+      </c>
+      <c r="E77" s="5">
+        <v>33</v>
+      </c>
+      <c r="F77" s="8">
+        <v>5.2381462054077097E-6</v>
+      </c>
+      <c r="G77" s="5">
+        <v>8</v>
+      </c>
+      <c r="H77" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I77" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J77" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K77" s="8">
+        <f t="shared" si="2"/>
+        <v>1.768142533688493E-5</v>
+      </c>
+      <c r="L77" s="11">
+        <f t="shared" si="3"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>4.7355863832703599E-2</v>
+      </c>
+      <c r="B78" s="5">
+        <v>5.89354714038334E-2</v>
+      </c>
+      <c r="C78" s="7">
+        <v>6.9463916231332398E-2</v>
+      </c>
+      <c r="D78" s="8">
+        <v>1.98654526393257E-5</v>
+      </c>
+      <c r="E78" s="5">
+        <v>34</v>
+      </c>
+      <c r="F78" s="8">
+        <v>1.10999357654258E-6</v>
+      </c>
+      <c r="G78" s="5">
+        <v>9</v>
+      </c>
+      <c r="H78" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I78" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J78" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K78" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9865452639360875E-5</v>
+      </c>
+      <c r="L78" s="11">
+        <f t="shared" si="3"/>
+        <v>3.7777777777777777</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>4.7355080888913402E-2</v>
+      </c>
+      <c r="B79" s="5">
+        <v>5.89347295649933E-2</v>
+      </c>
+      <c r="C79" s="7">
+        <v>6.9463307164415705E-2</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2.1104116576963401E-5</v>
+      </c>
+      <c r="E79" s="5">
+        <v>33</v>
+      </c>
+      <c r="F79" s="8">
+        <v>6.5137278160604198E-6</v>
+      </c>
+      <c r="G79" s="5">
+        <v>8</v>
+      </c>
+      <c r="H79" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I79" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J79" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K79" s="8">
+        <f t="shared" si="2"/>
+        <v>2.1104116577044906E-5</v>
+      </c>
+      <c r="L79" s="11">
+        <f t="shared" si="3"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>4.7378301227884598E-2</v>
+      </c>
+      <c r="B80" s="5">
+        <v>5.8956728681165499E-2</v>
+      </c>
+      <c r="C80" s="7">
+        <v>6.9481369522328196E-2</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1.5629982402587199E-5</v>
+      </c>
+      <c r="E80" s="5">
+        <v>32</v>
+      </c>
+      <c r="F80" s="8">
+        <v>3.8266956225305701E-6</v>
+      </c>
+      <c r="G80" s="5">
+        <v>8</v>
+      </c>
+      <c r="H80" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I80" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J80" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K80" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5629982402529523E-5</v>
+      </c>
+      <c r="L80" s="11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>4.7356569581767503E-2</v>
+      </c>
+      <c r="B81" s="5">
+        <v>5.8936140027918499E-2</v>
+      </c>
+      <c r="C81" s="7">
+        <v>6.9464465206683895E-2</v>
+      </c>
+      <c r="D81" s="8">
+        <v>1.8748978795161899E-5</v>
+      </c>
+      <c r="E81" s="5">
+        <v>36</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1.1098393309209201E-5</v>
+      </c>
+      <c r="G81" s="5">
+        <v>8</v>
+      </c>
+      <c r="H81" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I81" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J81" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K81" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8748978795198339E-5</v>
+      </c>
+      <c r="L81" s="11">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>4.7356454336323399E-2</v>
+      </c>
+      <c r="B82" s="5">
+        <v>5.8936030725416901E-2</v>
+      </c>
+      <c r="C82" s="7">
+        <v>6.9464375495514805E-2</v>
+      </c>
+      <c r="D82" s="8">
+        <v>1.8931397642317899E-5</v>
+      </c>
+      <c r="E82" s="5">
+        <v>32</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1.49094857501151E-6</v>
+      </c>
+      <c r="G82" s="5">
+        <v>8</v>
+      </c>
+      <c r="H82" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I82" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J82" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K82" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8931397642383046E-5</v>
+      </c>
+      <c r="L82" s="11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>4.7378350264187699E-2</v>
+      </c>
+      <c r="B83" s="5">
+        <v>5.8956775598300898E-2</v>
+      </c>
+      <c r="C83" s="7">
+        <v>6.94814079207451E-2</v>
+      </c>
+      <c r="D83" s="8">
+        <v>1.5707957392781699E-5</v>
+      </c>
+      <c r="E83" s="5">
+        <v>34</v>
+      </c>
+      <c r="F83" s="8">
+        <v>5.5102258370797903E-6</v>
+      </c>
+      <c r="G83" s="5">
+        <v>7</v>
+      </c>
+      <c r="H83" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I83" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J83" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K83" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5707957392691537E-5</v>
+      </c>
+      <c r="L83" s="11">
+        <f t="shared" si="3"/>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>4.7381579749731798E-2</v>
+      </c>
+      <c r="B84" s="5">
+        <v>5.89598387754788E-2</v>
+      </c>
+      <c r="C84" s="7">
+        <v>6.9483921994318701E-2</v>
+      </c>
+      <c r="D84" s="8">
+        <v>2.0820020794195901E-5</v>
+      </c>
+      <c r="E84" s="5">
+        <v>27</v>
+      </c>
+      <c r="F84" s="8">
+        <v>3.9123441359145299E-6</v>
+      </c>
+      <c r="G84" s="5">
+        <v>7</v>
+      </c>
+      <c r="H84" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I84" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J84" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K84" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0820020794169843E-5</v>
+      </c>
+      <c r="L84" s="11">
+        <f t="shared" si="3"/>
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>4.7381347582225099E-2</v>
+      </c>
+      <c r="B85" s="5">
+        <v>5.8959615296650697E-2</v>
+      </c>
+      <c r="C85" s="7">
+        <v>6.9483739448231094E-2</v>
+      </c>
+      <c r="D85" s="8">
+        <v>2.0449668323716901E-5</v>
+      </c>
+      <c r="E85" s="5">
+        <v>35</v>
+      </c>
+      <c r="F85" s="8">
+        <v>2.9384214901529801E-5</v>
+      </c>
+      <c r="G85" s="5">
+        <v>7</v>
+      </c>
+      <c r="H85" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I85" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J85" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K85" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0449668323635549E-5</v>
+      </c>
+      <c r="L85" s="11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>4.7356265640911901E-2</v>
+      </c>
+      <c r="B86" s="5">
+        <v>5.8935849524736003E-2</v>
+      </c>
+      <c r="C86" s="7">
+        <v>6.9464227369971501E-2</v>
+      </c>
+      <c r="D86" s="8">
+        <v>1.9232026406577501E-5</v>
+      </c>
+      <c r="E86" s="5">
+        <v>30</v>
+      </c>
+      <c r="F86" s="8">
+        <v>1.1514818689240101E-5</v>
+      </c>
+      <c r="G86" s="5">
+        <v>8</v>
+      </c>
+      <c r="H86" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I86" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J86" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K86" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9232026406669719E-5</v>
+      </c>
+      <c r="L86" s="11">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>4.7355894779364402E-2</v>
+      </c>
+      <c r="B87" s="5">
+        <v>5.8935500595954003E-2</v>
+      </c>
+      <c r="C87" s="7">
+        <v>6.9463940233429E-2</v>
+      </c>
+      <c r="D87" s="8">
+        <v>1.9816606273631499E-5</v>
+      </c>
+      <c r="E87" s="5">
+        <v>34</v>
+      </c>
+      <c r="F87" s="8">
+        <v>8.6521270756259393E-6</v>
+      </c>
+      <c r="G87" s="5">
+        <v>8</v>
+      </c>
+      <c r="H87" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I87" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J87" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K87" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9816606273733485E-5</v>
+      </c>
+      <c r="L87" s="11">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>4.7380041918147597E-2</v>
+      </c>
+      <c r="B88" s="5">
+        <v>5.8958378472463602E-2</v>
+      </c>
+      <c r="C88" s="7">
+        <v>6.9482723908867894E-2</v>
+      </c>
+      <c r="D88" s="8">
+        <v>1.8384283872982001E-5</v>
+      </c>
+      <c r="E88" s="5">
+        <v>33</v>
+      </c>
+      <c r="F88" s="8">
+        <v>2.1392344155499901E-6</v>
+      </c>
+      <c r="G88" s="5">
+        <v>8</v>
+      </c>
+      <c r="H88" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I88" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J88" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K88" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8384283872937579E-5</v>
+      </c>
+      <c r="L88" s="11">
+        <f t="shared" si="3"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>4.73575608809736E-2</v>
+      </c>
+      <c r="B89" s="5">
+        <v>5.8937079567904602E-2</v>
+      </c>
+      <c r="C89" s="7">
+        <v>6.9465236514819007E-2</v>
+      </c>
+      <c r="D89" s="8">
+        <v>1.7180436266381498E-5</v>
+      </c>
+      <c r="E89" s="5">
+        <v>29</v>
+      </c>
+      <c r="F89" s="8">
+        <v>6.4206750279503002E-6</v>
+      </c>
+      <c r="G89" s="5">
+        <v>8</v>
+      </c>
+      <c r="H89" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I89" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J89" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K89" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7180436266445385E-5</v>
+      </c>
+      <c r="L89" s="11">
+        <f t="shared" si="3"/>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>4.7380010051713599E-2</v>
+      </c>
+      <c r="B90" s="5">
+        <v>5.8958347101889401E-2</v>
+      </c>
+      <c r="C90" s="7">
+        <v>6.9482698467416698E-2</v>
+      </c>
+      <c r="D90" s="8">
+        <v>1.8332843749045001E-5</v>
+      </c>
+      <c r="E90" s="5">
+        <v>26</v>
+      </c>
+      <c r="F90" s="8">
+        <v>3.4104315352197099E-6</v>
+      </c>
+      <c r="G90" s="5">
+        <v>8</v>
+      </c>
+      <c r="H90" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I90" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J90" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K90" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8332843748991583E-5</v>
+      </c>
+      <c r="L90" s="11">
+        <f t="shared" si="3"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>4.7380090996241297E-2</v>
+      </c>
+      <c r="B91" s="5">
+        <v>5.8958424725824299E-2</v>
+      </c>
+      <c r="C91" s="7">
+        <v>6.9482761950242694E-2</v>
+      </c>
+      <c r="D91" s="8">
+        <v>1.8461712201710901E-5</v>
+      </c>
+      <c r="E91" s="5">
+        <v>34</v>
+      </c>
+      <c r="F91" s="8">
+        <v>4.7913724314732899E-6</v>
+      </c>
+      <c r="G91" s="5">
+        <v>8</v>
+      </c>
+      <c r="H91" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I91" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J91" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K91" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8461712201655295E-5</v>
+      </c>
+      <c r="L91" s="11">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>4.73815440907117E-2</v>
+      </c>
+      <c r="B92" s="5">
+        <v>5.8959800010027402E-2</v>
+      </c>
+      <c r="C92" s="7">
+        <v>6.9483891497190906E-2</v>
+      </c>
+      <c r="D92" s="8">
+        <v>2.0759268627427701E-5</v>
+      </c>
+      <c r="E92" s="5">
+        <v>31</v>
+      </c>
+      <c r="F92" s="8">
+        <v>5.5060617930647501E-6</v>
+      </c>
+      <c r="G92" s="5">
+        <v>8</v>
+      </c>
+      <c r="H92" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I92" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J92" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K92" s="8">
+        <f t="shared" si="2"/>
+        <v>2.075926862737551E-5</v>
+      </c>
+      <c r="L92" s="11">
+        <f t="shared" si="3"/>
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>4.7378901862682503E-2</v>
+      </c>
+      <c r="B93" s="5">
+        <v>5.89573019229035E-2</v>
+      </c>
+      <c r="C93" s="7">
+        <v>6.9481839060796802E-2</v>
+      </c>
+      <c r="D93" s="8">
+        <v>1.6583830114951201E-5</v>
+      </c>
+      <c r="E93" s="5">
+        <v>28</v>
+      </c>
+      <c r="F93" s="8">
+        <v>9.1968079899096203E-7</v>
+      </c>
+      <c r="G93" s="5">
+        <v>9</v>
+      </c>
+      <c r="H93" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I93" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J93" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K93" s="8">
+        <f t="shared" si="2"/>
+        <v>1.65838301148798E-5</v>
+      </c>
+      <c r="L93" s="11">
+        <f t="shared" si="3"/>
+        <v>3.1111111111111112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>4.7357297523683901E-2</v>
+      </c>
+      <c r="B94" s="5">
+        <v>5.8936829786208102E-2</v>
+      </c>
+      <c r="C94" s="7">
+        <v>6.9465031505255695E-2</v>
+      </c>
+      <c r="D94" s="8">
+        <v>1.7597301757166398E-5</v>
+      </c>
+      <c r="E94" s="5">
+        <v>34</v>
+      </c>
+      <c r="F94" s="8">
+        <v>5.75227987078775E-6</v>
+      </c>
+      <c r="G94" s="5">
+        <v>6</v>
+      </c>
+      <c r="H94" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I94" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J94" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K94" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7597301757257478E-5</v>
+      </c>
+      <c r="L94" s="11">
+        <f t="shared" si="3"/>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>4.7378527550638802E-2</v>
+      </c>
+      <c r="B95" s="5">
+        <v>5.89569435372072E-2</v>
+      </c>
+      <c r="C95" s="7">
+        <v>6.9481545813152398E-2</v>
+      </c>
+      <c r="D95" s="8">
+        <v>1.5988400395112898E-5</v>
+      </c>
+      <c r="E95" s="5">
+        <v>34</v>
+      </c>
+      <c r="F95" s="8">
+        <v>3.6953972999271998E-6</v>
+      </c>
+      <c r="G95" s="5">
+        <v>8</v>
+      </c>
+      <c r="H95" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I95" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J95" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K95" s="8">
+        <f t="shared" si="2"/>
+        <v>1.5988400395107904E-5</v>
+      </c>
+      <c r="L95" s="11">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>4.7379256065773499E-2</v>
+      </c>
+      <c r="B96" s="5">
+        <v>5.8957633438205703E-2</v>
+      </c>
+      <c r="C96" s="7">
+        <v>6.9482112335877602E-2</v>
+      </c>
+      <c r="D96" s="8">
+        <v>1.7140635457251701E-5</v>
+      </c>
+      <c r="E96" s="5">
+        <v>33</v>
+      </c>
+      <c r="F96" s="8">
+        <v>6.5100553199576901E-6</v>
+      </c>
+      <c r="G96" s="5">
+        <v>8</v>
+      </c>
+      <c r="H96" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I96" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J96" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K96" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7140635457177203E-5</v>
+      </c>
+      <c r="L96" s="11">
+        <f t="shared" si="3"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>4.7355787095986097E-2</v>
+      </c>
+      <c r="B97" s="5">
+        <v>5.8935398292680498E-2</v>
+      </c>
+      <c r="C97" s="7">
+        <v>6.9463856313095401E-2</v>
+      </c>
+      <c r="D97" s="8">
+        <v>1.9987205949700101E-5</v>
+      </c>
+      <c r="E97" s="5">
+        <v>32</v>
+      </c>
+      <c r="F97" s="8">
+        <v>1.1486069426130501E-5</v>
+      </c>
+      <c r="G97" s="5">
+        <v>8</v>
+      </c>
+      <c r="H97" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I97" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J97" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K97" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9987205949741351E-5</v>
+      </c>
+      <c r="L97" s="11">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>4.7355944203038298E-2</v>
+      </c>
+      <c r="B98" s="5">
+        <v>5.8935548076419299E-2</v>
+      </c>
+      <c r="C98" s="7">
+        <v>6.9463979041904905E-2</v>
+      </c>
+      <c r="D98" s="8">
+        <v>1.9737847425467598E-5</v>
+      </c>
+      <c r="E98" s="5">
+        <v>30</v>
+      </c>
+      <c r="F98" s="8">
+        <v>5.9985768329726601E-6</v>
+      </c>
+      <c r="G98" s="5">
+        <v>7</v>
+      </c>
+      <c r="H98" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I98" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J98" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K98" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9737847425533796E-5</v>
+      </c>
+      <c r="L98" s="11">
+        <f t="shared" si="3"/>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>4.7355974980719799E-2</v>
+      </c>
+      <c r="B99" s="5">
+        <v>5.8935576687977602E-2</v>
+      </c>
+      <c r="C99" s="7">
+        <v>6.9464002679686707E-2</v>
+      </c>
+      <c r="D99" s="8">
+        <v>1.96896346929311E-5</v>
+      </c>
+      <c r="E99" s="5">
+        <v>33</v>
+      </c>
+      <c r="F99" s="8">
+        <v>5.5971140592678501E-6</v>
+      </c>
+      <c r="G99" s="5">
+        <v>8</v>
+      </c>
+      <c r="H99" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I99" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J99" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K99" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9689634692999902E-5</v>
+      </c>
+      <c r="L99" s="11">
+        <f t="shared" si="3"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>4.73561500093223E-2</v>
+      </c>
+      <c r="B100" s="5">
+        <v>5.8935742502522502E-2</v>
+      </c>
+      <c r="C100" s="7">
+        <v>6.9464138823949695E-2</v>
+      </c>
+      <c r="D100" s="8">
+        <v>1.9412750718572301E-5</v>
+      </c>
+      <c r="E100" s="5">
+        <v>36</v>
+      </c>
+      <c r="F100" s="8">
+        <v>2.6440199792800899E-5</v>
+      </c>
+      <c r="G100" s="5">
+        <v>7</v>
+      </c>
+      <c r="H100" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I100" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J100" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K100" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9412750718641077E-5</v>
+      </c>
+      <c r="L100" s="11">
+        <f t="shared" si="3"/>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>4.73813447980483E-2</v>
+      </c>
+      <c r="B101" s="5">
+        <v>5.8959612708395698E-2</v>
+      </c>
+      <c r="C101" s="7">
+        <v>6.9483737309920704E-2</v>
+      </c>
+      <c r="D101" s="8">
+        <v>2.0445306932717901E-5</v>
+      </c>
+      <c r="E101" s="5">
+        <v>35</v>
+      </c>
+      <c r="F101" s="8">
+        <v>3.8845201597620999E-6</v>
+      </c>
+      <c r="G101" s="5">
+        <v>8</v>
+      </c>
+      <c r="H101" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I101" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J101" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K101" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0445306932636525E-5</v>
+      </c>
+      <c r="L101" s="11">
+        <f t="shared" si="3"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>4.7380953077974901E-2</v>
+      </c>
+      <c r="B102" s="5">
+        <v>5.8959242530522503E-2</v>
+      </c>
+      <c r="C102" s="7">
+        <v>6.9483433124328295E-2</v>
+      </c>
+      <c r="D102" s="8">
+        <v>1.9826433245315901E-5</v>
+      </c>
+      <c r="E102" s="5">
+        <v>30</v>
+      </c>
+      <c r="F102" s="8">
+        <v>5.7449582242445597E-6</v>
+      </c>
+      <c r="G102" s="5">
+        <v>8</v>
+      </c>
+      <c r="H102" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I102" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J102" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K102" s="8">
+        <f t="shared" si="2"/>
+        <v>1.9826433245216679E-5</v>
+      </c>
+      <c r="L102" s="11">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>4.7357446760173498E-2</v>
+      </c>
+      <c r="B103" s="5">
+        <v>5.8936971193675199E-2</v>
+      </c>
+      <c r="C103" s="7">
+        <v>6.9465147602475297E-2</v>
+      </c>
+      <c r="D103" s="8">
+        <v>1.7361195497663199E-5</v>
+      </c>
+      <c r="E103" s="5">
+        <v>33</v>
+      </c>
+      <c r="F103" s="8">
+        <v>1.8591753366403701E-6</v>
+      </c>
+      <c r="G103" s="5">
+        <v>8</v>
+      </c>
+      <c r="H103" s="7">
+        <v>4.7368421052631601E-2</v>
+      </c>
+      <c r="I103" s="6">
+        <v>5.8947368421052602E-2</v>
+      </c>
+      <c r="J103" s="6">
+        <v>6.9473684210526299E-2</v>
+      </c>
+      <c r="K103" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7361195497714133E-5</v>
+      </c>
+      <c r="L103" s="11">
+        <f t="shared" si="3"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C105" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="8">
+        <f>AVERAGE(D4:D103)</f>
+        <v>1.819719655415089E-5</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="8">
+        <f>AVERAGE(F4:F103)</f>
+        <v>6.965315859028424E-6</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="K105" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L105" s="11">
+        <f>AVERAGE(L4:L103)</f>
+        <v>4.0630158730158721</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F104:K104"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="H2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>